--- a/biology/Zoologie/Bull-baiting/Bull-baiting.xlsx
+++ b/biology/Zoologie/Bull-baiting/Bull-baiting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le bull-baiting est une forme de combat d'animaux impliquant faire combattre un taureau contre des chiens[1].
+Le bull-baiting est une forme de combat d'animaux impliquant faire combattre un taureau contre des chiens.
 </t>
         </is>
       </c>
@@ -514,9 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au Royaume-Uni
-Angleterre
-En 1604, lors de l'entrée royale de Jacques VI et Ier à Londres, la foule a été divertie par du bullbaiting. À l'époque de la reine Anne, le bull-baiting était pratiqué à Londres à Hockley-in-the-Hole, deux fois par semaine - et était également assez courante dans les villes de province, par exemple au Bull Ring de Birmingham.
+          <t>Au Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Angleterre</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1604, lors de l'entrée royale de Jacques VI et Ier à Londres, la foule a été divertie par du bullbaiting. À l'époque de la reine Anne, le bull-baiting était pratiqué à Londres à Hockley-in-the-Hole, deux fois par semaine - et était également assez courante dans les villes de province, par exemple au Bull Ring de Birmingham.
 </t>
         </is>
       </c>
